--- a/test_train_al.xlsx
+++ b/test_train_al.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="14">
   <si>
     <t>Iterasi10</t>
   </si>
@@ -56,15 +56,6 @@
   </si>
   <si>
     <t>Query ke 8</t>
-  </si>
-  <si>
-    <t>Query ke 9</t>
-  </si>
-  <si>
-    <t>Query ke 10</t>
-  </si>
-  <si>
-    <t>Query ke 11</t>
   </si>
 </sst>
 </file>
@@ -414,13 +405,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:BB9"/>
+  <dimension ref="A2:AM9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +421,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:39">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -438,7 +429,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:39">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -487,26 +478,8 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
-      <c r="AO4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AT4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AY4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:39">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -531,17 +504,8 @@
       <c r="AK5" t="s">
         <v>2</v>
       </c>
-      <c r="AP5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -564,52 +528,34 @@
         <v>3</v>
       </c>
       <c r="Q6">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="U6" t="s">
         <v>3</v>
       </c>
       <c r="V6">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z6" t="s">
         <v>3</v>
       </c>
       <c r="AA6">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AE6" t="s">
         <v>3</v>
       </c>
       <c r="AF6">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="AJ6" t="s">
         <v>3</v>
       </c>
       <c r="AK6">
-        <v>550</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP6">
-        <v>600</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU6">
-        <v>655</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ6">
         <v>666</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -632,52 +578,34 @@
         <v>4</v>
       </c>
       <c r="Q7">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="U7" t="s">
         <v>4</v>
       </c>
       <c r="V7">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="Z7" t="s">
         <v>4</v>
       </c>
       <c r="AA7">
-        <v>216</v>
+        <v>66</v>
       </c>
       <c r="AE7" t="s">
         <v>4</v>
       </c>
       <c r="AF7">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="s">
         <v>4</v>
       </c>
       <c r="AK7">
-        <v>116</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP7">
-        <v>66</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU7">
-        <v>11</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -726,26 +654,8 @@
       <c r="AK8">
         <v>3</v>
       </c>
-      <c r="AO8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP8">
-        <v>2</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU8">
-        <v>1</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -768,53 +678,35 @@
         <v>6</v>
       </c>
       <c r="Q9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="U9" t="s">
         <v>6</v>
       </c>
       <c r="V9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Z9" t="s">
         <v>6</v>
       </c>
       <c r="AA9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AE9" t="s">
         <v>6</v>
       </c>
       <c r="AF9">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="s">
         <v>6</v>
       </c>
       <c r="AK9">
-        <v>50</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP9">
-        <v>50</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>6</v>
-      </c>
-      <c r="AU9">
-        <v>55</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>6</v>
-      </c>
-      <c r="AZ9">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
     <mergeCell ref="A2:F3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="F4:I4"/>
@@ -824,9 +716,6 @@
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AE4:AH4"/>
     <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AO4:AR4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="AY4:BB4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
